--- a/HDR21-22_Statistical_Annex_HDI_Table.xlsx
+++ b/HDR21-22_Statistical_Annex_HDI_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repository\ms0003-mini-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B44F0A7-ECB2-45D8-8C58-A527C9D3C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C4C8A5-6966-473E-977A-744C7FC2E9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1875,10 +1875,10 @@
   <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8656,6 +8656,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0377062c7993f79e0ee2fe840fd08d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2869b255174fce0a927e36b6c0c9136f" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -8834,20 +8848,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
   <ds:schemaRefs>
@@ -8857,6 +8857,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66ED643-5F43-47CB-8288-3F0E93434226}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8873,14 +8883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>